--- a/machine-learning/sentiment-analysis-with-python/outputs/BUSINESS.xlsx
+++ b/machine-learning/sentiment-analysis-with-python/outputs/BUSINESS.xlsx
@@ -548,16 +548,16 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>276</v>
+        <v>9993</v>
       </c>
       <c r="C2">
-        <v>0.8188</v>
+        <v>0.8013</v>
       </c>
       <c r="D2">
-        <v>0.0761</v>
+        <v>0.0805</v>
       </c>
       <c r="E2">
-        <v>0.1051</v>
+        <v>0.1183</v>
       </c>
     </row>
   </sheetData>
